--- a/statistic/data/2020/1/certificate.xlsx
+++ b/statistic/data/2020/1/certificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/englishlory/git/excel-management/statistic/data/2020/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93ACF77-D933-FF4F-9217-39771D0C96B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36DB553-5045-7448-A857-E8C5D437490C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凭证" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -981,10 +981,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,28 +996,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1026,10 +1026,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,16 +1044,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1083,7 +1083,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1092,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,10 +1110,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,10 +1125,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1137,68 +1137,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1206,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1239,86 +1206,92 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1326,10 +1299,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1343,6 +1316,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -1647,67 +1647,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="87" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="90"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="40">
         <f>SUM(E5:E36)</f>
         <v>3907</v>
@@ -1750,7 +1750,7 @@
       <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="A6" s="82">
+      <c r="A6" s="71">
         <v>2</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -1773,7 +1773,7 @@
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="A7" s="82"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="48" t="s">
         <v>15</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="83"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="48" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="A11" s="84">
+      <c r="A11" s="73">
         <v>5</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -1884,7 +1884,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="A12" s="83"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="A13" s="84">
+      <c r="A13" s="73">
         <v>6</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -1928,7 +1928,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="A14" s="83"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="48" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="A15" s="84">
+      <c r="A15" s="73">
         <v>7</v>
       </c>
       <c r="B15" s="48" t="s">
@@ -1960,7 +1960,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
-      <c r="A16" s="82"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="48" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="82"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="48" t="s">
         <v>21</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="48" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
-      <c r="A19" s="84">
+      <c r="A19" s="73">
         <v>8</v>
       </c>
       <c r="B19" s="48" t="s">
@@ -2022,7 +2022,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="82"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="48" t="s">
         <v>22</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="83"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="48" t="s">
         <v>22</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
-      <c r="A22" s="84">
+      <c r="A22" s="73">
         <v>9</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -2069,7 +2069,7 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="A23" s="83"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="48" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="A24" s="84">
+      <c r="A24" s="73">
         <v>10</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -2101,7 +2101,7 @@
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
-      <c r="A25" s="83"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="50" t="s">
         <v>24</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="35" customHeight="1">
-      <c r="A26" s="84">
+      <c r="A26" s="73">
         <v>11</v>
       </c>
       <c r="B26" s="54" t="s">
@@ -2133,7 +2133,7 @@
       <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" ht="35" customHeight="1">
-      <c r="A27" s="83"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="54" t="s">
         <v>26</v>
       </c>
@@ -2304,32 +2304,37 @@
       <c r="C37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="75" t="s">
+      <c r="H37" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="75"/>
+      <c r="I37" s="90"/>
     </row>
     <row r="38" spans="1:9" ht="25" customHeight="1">
-      <c r="H38" s="75" t="s">
+      <c r="H38" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="75"/>
+      <c r="I38" s="90"/>
     </row>
     <row r="39" spans="1:9" ht="46" customHeight="1">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A8"/>
@@ -2346,11 +2351,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2392,279 +2392,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="85" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="12"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="12"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="93"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="22" customHeight="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="99"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="93"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="22" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="22" customHeight="1">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="93"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="22" customHeight="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="93"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="22" customHeight="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="102" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="22" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
@@ -2672,29 +2672,28 @@
       <c r="A20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="27"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="35" customHeight="1">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="15">
-        <f>SUM(G4:G20)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>12</v>
@@ -2705,25 +2704,41 @@
       <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="1:9" ht="25" customHeight="1">
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B7:B13"/>
@@ -2733,28 +2748,12 @@
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.58888888888888902" right="7.9166666666666705E-2" top="0.27916666666666701" bottom="0.23888888888888901" header="0.27916666666666701" footer="0.50902777777777797"/>
@@ -2785,124 +2784,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="104"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="91"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="74" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="89"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="96"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="23"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="97"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="96"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="25"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="97"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="25"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="97"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="89"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="26"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="12"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="97"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="26"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="95"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="12"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="97"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="26"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="97"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="26"/>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="12"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="97"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="26"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="12"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="90"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="26"/>
       <c r="F13" s="21"/>
     </row>
@@ -2927,10 +2926,10 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="18">
         <f>SUM(C4:C15)</f>
         <v>0</v>
@@ -2945,29 +2944,24 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="31" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="90"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1">
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A16:B16"/>
@@ -2976,6 +2970,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86875000000000002" right="0.23888888888888901" top="0.30902777777777801" bottom="0.2" header="0.34930555555555598" footer="0.2"/>
@@ -3010,15 +3009,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="119"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A2" s="115" t="s">
@@ -3026,14 +3025,14 @@
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="113" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3047,24 +3046,24 @@
       <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="123"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="114"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="119"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
     </row>
@@ -3087,17 +3086,17 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="31" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="117"/>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="2"/>
@@ -3105,13 +3104,18 @@
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="117"/>
+      <c r="G8" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
@@ -3119,11 +3123,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3155,15 +3154,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="119"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A2" s="115" t="s">
@@ -3171,14 +3170,14 @@
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="113" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3192,69 +3191,69 @@
       <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="123"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="114"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="119"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="119"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="119"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="119"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="119"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="43" customHeight="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="119"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
@@ -3277,17 +3276,17 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="31" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="117"/>
+      <c r="G12" s="108"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="2"/>
@@ -3295,13 +3294,18 @@
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="117"/>
+      <c r="G13" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
@@ -3314,11 +3318,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
